--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464160.602036966</v>
+        <v>1460020.89562301</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9528483.058454556</v>
+        <v>9525533.161502464</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>314.1155096590524</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2260356881375</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968111</v>
+        <v>16.57178226287773</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.4458365470512</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -835,10 +835,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>298.1689994583487</v>
       </c>
       <c r="X5" t="n">
-        <v>238.5409060564669</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968111</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>95.98918911403655</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.65872702774723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4551847859273</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>101.5459998857697</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.3597858501684</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.419053599019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>33.13362445281372</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>20.82569102466462</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>45.58405866551071</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>85.47201625670743</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.84485392730121</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1616,16 +1616,16 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>158.0425081562656</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465754</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.66398400445357</v>
       </c>
       <c r="S16" t="n">
-        <v>56.30588797412321</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,13 +1822,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422874583</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211821</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419582</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838891</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828903</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431736</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459977</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643949</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193186</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908587</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147801</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805005</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922198</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736779</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920521</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X41" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.170656636127</v>
+        <v>519.105143160087</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.170656636127</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="D2" t="n">
-        <v>871.7295278527949</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="E2" t="n">
-        <v>871.7295278527949</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F2" t="n">
-        <v>454.8350893827727</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935488</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964321</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.276500964321</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="V2" t="n">
-        <v>1628.16969166784</v>
+        <v>1305.048457306429</v>
       </c>
       <c r="W2" t="n">
-        <v>1257.170656636127</v>
+        <v>1305.048457306429</v>
       </c>
       <c r="X2" t="n">
-        <v>1257.170656636127</v>
+        <v>915.5958522394859</v>
       </c>
       <c r="Y2" t="n">
-        <v>1257.170656636127</v>
+        <v>519.105143160087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>716.4374237795013</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>565.7831933395935</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>435.6942259610738</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475497</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048477</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1120.01322941494</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1636.533512005922</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1899.575443611948</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1689.51230029059</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1466.972298661657</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1236.855052794944</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1047.547975144955</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>868.2337582204626</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>680.1873122183276</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D4" t="n">
-        <v>524.5541991208424</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="E4" t="n">
-        <v>524.5541991208424</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F4" t="n">
-        <v>367.2282643338154</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.973020717819</v>
+        <v>1393.881807272276</v>
       </c>
       <c r="C5" t="n">
-        <v>1335.973020717819</v>
+        <v>1393.881807272276</v>
       </c>
       <c r="D5" t="n">
-        <v>1335.973020717819</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477964</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172347</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V5" t="n">
-        <v>1576.923430875866</v>
+        <v>1695.062614805962</v>
       </c>
       <c r="W5" t="n">
-        <v>1576.923430875866</v>
+        <v>1393.881807272276</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.973020717819</v>
+        <v>1393.881807272276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.973020717819</v>
+        <v>1393.881807272276</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.27622687548</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>845.9914924150257</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>610.2724405832598</v>
       </c>
       <c r="U7" t="n">
-        <v>332.7868169933348</v>
+        <v>324.8336488251608</v>
       </c>
       <c r="V7" t="n">
-        <v>332.7868169933348</v>
+        <v>324.8336488251608</v>
       </c>
       <c r="W7" t="n">
-        <v>332.7868169933348</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X7" t="n">
-        <v>98.70649477631784</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.814985091395</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559.0882834477352</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="C10" t="n">
-        <v>388.8831655137244</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="D10" t="n">
-        <v>233.2500524162392</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>768.5985927944412</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="Y10" t="n">
-        <v>744.2963021390365</v>
+        <v>534.5182705774242</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1434.218555009979</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C11" t="n">
-        <v>1112.839328659103</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D11" t="n">
-        <v>1112.839328659103</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>782.0520789218416</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>436.9539155980133</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>95.58743523221028</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3084.920333665711</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998632</v>
+        <v>2933.216006371321</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2933.216006371321</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="W11" t="n">
-        <v>2405.267789429136</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.611459508387</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y11" t="n">
-        <v>1762.917025575182</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.6018362700523</v>
+        <v>474.8005932364097</v>
       </c>
       <c r="C13" t="n">
-        <v>303.5573325675164</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="D13" t="n">
-        <v>303.5573325675164</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675164</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,10 +5218,10 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
         <v>1365.712833143251</v>
@@ -5230,19 +5230,19 @@
         <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457738</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>988.1475398457738</v>
+        <v>901.8121698895028</v>
       </c>
       <c r="W13" t="n">
-        <v>776.6134129231455</v>
+        <v>901.8121698895028</v>
       </c>
       <c r="X13" t="n">
-        <v>614.3293658523224</v>
+        <v>739.5281228186798</v>
       </c>
       <c r="Y13" t="n">
-        <v>463.0135798151597</v>
+        <v>588.212336781517</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1528.935834922735</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1207.556608571859</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>893.9117549347209</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>563.1245051974593</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>403.4856080699184</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2182.328739421142</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.611459508387</v>
+        <v>1857.634305487938</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229.5639405910313</v>
+        <v>509.9602217740417</v>
       </c>
       <c r="C16" t="n">
-        <v>229.5639405910313</v>
+        <v>411.5513789862248</v>
       </c>
       <c r="D16" t="n">
-        <v>229.5639405910313</v>
+        <v>411.5513789862248</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014035964277</v>
+        <v>327.7888419916212</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1445.556900395868</v>
       </c>
       <c r="S16" t="n">
-        <v>1439.858007497212</v>
+        <v>1314.537091724612</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.93523081164</v>
+        <v>1150.61431503904</v>
       </c>
       <c r="U16" t="n">
-        <v>1062.292714199735</v>
+        <v>936.9717984271347</v>
       </c>
       <c r="V16" t="n">
-        <v>868.1096441667527</v>
+        <v>936.9717984271347</v>
       </c>
       <c r="W16" t="n">
-        <v>656.5755172441243</v>
+        <v>936.9717984271347</v>
       </c>
       <c r="X16" t="n">
-        <v>494.2914701733013</v>
+        <v>774.6877513563118</v>
       </c>
       <c r="Y16" t="n">
-        <v>342.9756841361386</v>
+        <v>623.371965319149</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099302</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803419</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924138</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>313.661451296042</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960402</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343043</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,31 +6008,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>978.5393418843828</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.903663714218</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884792</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025981</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,25 +6297,25 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.707882522574</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904111</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423632</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315961</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174553</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996513</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918668</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823746</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123131</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546506</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431919</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.3901767122869</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736105</v>
+        <v>723.1136360743167</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>1017.955390680509</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600014</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439552</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000942</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124418</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584497</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803423</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,22 +6962,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012516</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>435.0968109750514</v>
       </c>
       <c r="M37" t="n">
-        <v>629.009399256734</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7251,13 +7251,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G41" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,16 +7433,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7488,13 +7488,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291067</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446686</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655135</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072216</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140951</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>306.0096150138709</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886038</v>
+        <v>162.9122342875679</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>394.0372700485434</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>213.3952764296684</v>
       </c>
       <c r="O5" t="n">
-        <v>188.8202997518133</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.5633660719496</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>458.3732307488509</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L9" t="n">
-        <v>203.2753887107831</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>92.38712204931178</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916683</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>373.1055958271592</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,16 +10431,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>709.3350389104426</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,7 +10908,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,7 +11145,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>216.6302830816285</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>72.94441608896339</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.84069569442799</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>106.7692230759446</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>271.5666319322497</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>183.6046735343244</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>0.9196830745632241</v>
       </c>
       <c r="S16" t="n">
-        <v>73.40372261042094</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3.268496584496461e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>829776.8736260745</v>
+        <v>828273.0045916737</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>829776.8736260745</v>
+        <v>828273.0045916737</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839949.8307622176</v>
+        <v>839949.8307622175</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839949.8307622176</v>
+        <v>839949.8307622175</v>
       </c>
     </row>
     <row r="11">
@@ -26320,37 +26320,37 @@
         <v>486896.8808520635</v>
       </c>
       <c r="E2" t="n">
-        <v>430269.3632458818</v>
+        <v>430269.3632458813</v>
       </c>
       <c r="F2" t="n">
         <v>430269.3632458819</v>
       </c>
       <c r="G2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520629</v>
       </c>
       <c r="H2" t="n">
-        <v>486896.8808520629</v>
+        <v>486896.880852063</v>
       </c>
       <c r="I2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.880852063</v>
       </c>
       <c r="J2" t="n">
-        <v>486896.8808520633</v>
+        <v>486896.8808520632</v>
       </c>
       <c r="K2" t="n">
-        <v>486896.8808520633</v>
+        <v>486896.8808520632</v>
       </c>
       <c r="L2" t="n">
-        <v>486896.8808520631</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="M2" t="n">
         <v>486896.8808520628</v>
       </c>
       <c r="N2" t="n">
-        <v>486896.8808520627</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="O2" t="n">
-        <v>486896.8808520625</v>
+        <v>486896.8808520628</v>
       </c>
       <c r="P2" t="n">
         <v>486896.8808520627</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.82055073001076e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399291</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081123</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.6110489511</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>138605.9604845214</v>
+        <v>138605.9604845213</v>
       </c>
       <c r="F4" t="n">
         <v>138605.9604845214</v>
       </c>
       <c r="G4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761036</v>
+        <v>186364.8769761035</v>
       </c>
       <c r="J4" t="n">
         <v>187115.3694404867</v>
@@ -26445,19 +26445,19 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="N4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="O4" t="n">
+        <v>186364.8769761036</v>
+      </c>
+      <c r="P4" t="n">
         <v>186364.8769761035</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186364.8769761035</v>
-      </c>
-      <c r="O4" t="n">
-        <v>186364.8769761035</v>
-      </c>
-      <c r="P4" t="n">
-        <v>186364.8769761036</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16453.02037124264</v>
+        <v>21105.23999241769</v>
       </c>
       <c r="C6" t="n">
-        <v>198657.9686630986</v>
+        <v>194963.8970264727</v>
       </c>
       <c r="D6" t="n">
-        <v>190913.3879594782</v>
+        <v>183177.0987360865</v>
       </c>
       <c r="E6" t="n">
-        <v>126354.8215874753</v>
+        <v>126145.0900407854</v>
       </c>
       <c r="F6" t="n">
-        <v>238477.38306152</v>
+        <v>238267.6515148304</v>
       </c>
       <c r="G6" t="n">
-        <v>194936.9090237574</v>
+        <v>194936.9090237579</v>
       </c>
       <c r="H6" t="n">
+        <v>242362.2345604399</v>
+      </c>
+      <c r="I6" t="n">
         <v>242362.2345604397</v>
       </c>
-      <c r="I6" t="n">
-        <v>242362.2345604394</v>
-      </c>
       <c r="J6" t="n">
-        <v>29320.31696315446</v>
+        <v>35836.60211772785</v>
       </c>
       <c r="K6" t="n">
-        <v>236122.4661576572</v>
+        <v>236122.4661576569</v>
       </c>
       <c r="L6" t="n">
-        <v>180939.8772230358</v>
+        <v>176891.040012564</v>
       </c>
       <c r="M6" t="n">
-        <v>200161.4051008166</v>
+        <v>199109.7100896283</v>
       </c>
       <c r="N6" t="n">
+        <v>242362.2345604397</v>
+      </c>
+      <c r="O6" t="n">
+        <v>214594.5405176682</v>
+      </c>
+      <c r="P6" t="n">
         <v>242362.2345604395</v>
-      </c>
-      <c r="O6" t="n">
-        <v>214594.5405176681</v>
-      </c>
-      <c r="P6" t="n">
-        <v>242362.2345604394</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095204</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.4185362318791e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407265</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085231</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>75.12823682304628</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>1.805092268739315</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626953</v>
+        <v>158.6421914202029</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>29.05723020761948</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27619,19 +27619,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,16 +27670,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>69.12004522304676</v>
       </c>
       <c r="X5" t="n">
-        <v>147.0171729598069</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626953</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>104.7987338652396</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.2222135437758</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7885616961714</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>119.7195965304078</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>102.1373121979658</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.46188697250406</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634530115</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,37 +28956,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29539,46 +29539,46 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566557</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.1080814089313</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,46 +29904,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254168</v>
+        <v>76.79385455031206</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485162</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5.636002634529632</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="42">
@@ -30615,34 +30615,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>35.71049010668693</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,13 +30651,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="44">
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32710,25 +32710,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.236771369671924e-13</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.534324246883461e-13</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.707231357290215e-13</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.734856145506603e-13</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.638175463473446e-13</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1.398144857545746e-13</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.049948560845564e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -32792,16 +32792,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.129524869426178e-13</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.318102246374109e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.352988490699988e-13</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.237720141233448e-13</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163678</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344372</v>
+        <v>77.54012143340128</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>306.9539052292288</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509188432</v>
       </c>
       <c r="O5" t="n">
-        <v>39.25646232771692</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1762440226378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>373.0011178946843</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>93.70171839237574</v>
       </c>
       <c r="L9" t="n">
-        <v>113.2150418538649</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
         <v>236.863807216752</v>
@@ -35817,13 +35817,13 @@
         <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>171.4214974565501</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565499</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535426</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36358,25 +36358,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317797</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682111</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510917</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449114</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457865</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065878</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110592</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>488.4505918164782</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828092</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>287.7334829729925</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105767</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.04914431113</v>
+        <v>267.8207684199904</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273763</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37151,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>623.9629260562759</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791183</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496205</v>
+        <v>241.1421040873909</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516616</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>193.8093140873216</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,7 +37628,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,16 +37713,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,7 +37865,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934969</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37947,13 +37947,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
